--- a/fhir/indisa/StructureDefinition-ProfileScheduleKlinic.xlsx
+++ b/fhir/indisa/StructureDefinition-ProfileScheduleKlinic.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$72</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="341">
   <si>
     <t>Path</t>
   </si>
@@ -337,11 +337,14 @@
     <t>availableTelemedicine</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://digitalware-klinic.github.io/fhir/indisa/StructureDefinition/AvailableTelemedicine}
+    <t xml:space="preserve">Extension {https://digitalware-klinic.github.io/fhir/indisa/StructureDefinition-AvailableTelemedicine}
 </t>
   </si>
   <si>
-    <t>Admite telemedicina:</t>
+    <t>Admit telemedicine</t>
+  </si>
+  <si>
+    <t>Active agenda for telemedicine care.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -351,11 +354,14 @@
     <t>quotaPatient</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://digitalware-klinic.github.io/fhir/indisa/StructureDefinition/QuotaPatient}
+    <t xml:space="preserve">Extension {https://digitalware-klinic.github.io/fhir/indisa/StructureDefinition-QuotaPatient}
 </t>
   </si>
   <si>
-    <t>Cupo pacientes:</t>
+    <t>Quota Patient</t>
+  </si>
+  <si>
+    <t>Number of patients admitted in the agenda.</t>
   </si>
   <si>
     <t>Schedule.modifierExtension</t>
@@ -873,7 +879,7 @@
     <t>Schedule.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|RelatedPerson|Device|HealthcareService|Location)
+    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|HealthcareService|Location)
 </t>
   </si>
   <si>
@@ -994,6 +1000,19 @@
   </si>
   <si>
     <t>Schedule.planningHorizon.extension</t>
+  </si>
+  <si>
+    <t>hoursOfOperation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://digitalware-klinic.github.io/fhir/indisa/StructureDefinition-HoursOfOperation}
+</t>
+  </si>
+  <si>
+    <t>HoursOfOperation</t>
+  </si>
+  <si>
+    <t>Hours of attention of the schedule.</t>
   </si>
   <si>
     <t>Schedule.planningHorizon.start</t>
@@ -1202,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL71"/>
+  <dimension ref="A1:AL72"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1211,44 +1230,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.23046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.0546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.5703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.48828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.37890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.68359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="44.79296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="32.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="99.8515625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2238,7 +2257,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>42</v>
@@ -2256,7 +2275,7 @@
         <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2316,7 +2335,7 @@
         <v>41</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>100</v>
@@ -2336,7 +2355,7 @@
         <v>93</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>42</v>
@@ -2346,7 +2365,7 @@
         <v>40</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>42</v>
@@ -2358,13 +2377,13 @@
         <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2424,7 +2443,7 @@
         <v>41</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>100</v>
@@ -2441,11 +2460,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2467,16 +2486,16 @@
         <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>42</v>
@@ -2525,7 +2544,7 @@
         <v>42</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
@@ -2551,7 +2570,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2574,13 +2593,13 @@
         <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2631,7 +2650,7 @@
         <v>42</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
@@ -2649,15 +2668,15 @@
         <v>42</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2683,10 +2702,10 @@
         <v>51</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2737,7 +2756,7 @@
         <v>42</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
@@ -2763,11 +2782,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2789,13 +2808,13 @@
         <v>94</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2836,7 +2855,7 @@
         <v>97</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>42</v>
@@ -2845,7 +2864,7 @@
         <v>98</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
@@ -2871,7 +2890,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2897,23 +2916,23 @@
         <v>69</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>42</v>
@@ -2931,13 +2950,13 @@
         <v>42</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>42</v>
@@ -2955,7 +2974,7 @@
         <v>42</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -2970,7 +2989,7 @@
         <v>61</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>42</v>
@@ -2981,7 +3000,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3004,19 +3023,19 @@
         <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>42</v>
@@ -3041,13 +3060,13 @@
         <v>42</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>42</v>
@@ -3065,7 +3084,7 @@
         <v>42</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
@@ -3080,7 +3099,7 @@
         <v>61</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>42</v>
@@ -3091,7 +3110,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3117,29 +3136,29 @@
         <v>63</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>42</v>
@@ -3175,7 +3194,7 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
@@ -3190,7 +3209,7 @@
         <v>61</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>42</v>
@@ -3201,7 +3220,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3227,13 +3246,13 @@
         <v>51</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3247,7 +3266,7 @@
         <v>42</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>42</v>
@@ -3283,7 +3302,7 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -3298,7 +3317,7 @@
         <v>61</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>42</v>
@@ -3309,7 +3328,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3332,13 +3351,13 @@
         <v>50</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3389,7 +3408,7 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3404,7 +3423,7 @@
         <v>61</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>42</v>
@@ -3415,7 +3434,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3438,16 +3457,16 @@
         <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3497,7 +3516,7 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3512,7 +3531,7 @@
         <v>61</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>42</v>
@@ -3523,7 +3542,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3546,23 +3565,23 @@
         <v>50</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q22" t="s" s="2">
         <v>42</v>
@@ -3607,7 +3626,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3628,12 +3647,12 @@
         <v>42</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3656,13 +3675,13 @@
         <v>50</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3689,11 +3708,11 @@
         <v>42</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>42</v>
@@ -3711,7 +3730,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3732,12 +3751,12 @@
         <v>42</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3763,10 +3782,10 @@
         <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3817,7 +3836,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3843,11 +3862,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3869,13 +3888,13 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3916,7 +3935,7 @@
         <v>97</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>42</v>
@@ -3925,7 +3944,7 @@
         <v>98</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -3951,7 +3970,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3974,19 +3993,19 @@
         <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>42</v>
@@ -4035,7 +4054,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -4050,7 +4069,7 @@
         <v>61</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>42</v>
@@ -4061,7 +4080,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4087,10 +4106,10 @@
         <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4141,7 +4160,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -4167,11 +4186,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4193,13 +4212,13 @@
         <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4240,7 +4259,7 @@
         <v>97</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>42</v>
@@ -4249,7 +4268,7 @@
         <v>98</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4275,7 +4294,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4301,16 +4320,16 @@
         <v>63</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4359,7 +4378,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4374,7 +4393,7 @@
         <v>61</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>42</v>
@@ -4385,7 +4404,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4411,13 +4430,13 @@
         <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4467,7 +4486,7 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4482,7 +4501,7 @@
         <v>61</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>42</v>
@@ -4493,7 +4512,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4519,14 +4538,14 @@
         <v>69</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
@@ -4575,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4590,7 +4609,7 @@
         <v>61</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>42</v>
@@ -4601,7 +4620,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4627,14 +4646,14 @@
         <v>51</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
@@ -4683,7 +4702,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4698,7 +4717,7 @@
         <v>61</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>42</v>
@@ -4709,7 +4728,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4732,19 +4751,19 @@
         <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -4793,7 +4812,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -4808,7 +4827,7 @@
         <v>61</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>42</v>
@@ -4819,7 +4838,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4845,16 +4864,16 @@
         <v>51</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -4903,7 +4922,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -4918,7 +4937,7 @@
         <v>61</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>42</v>
@@ -4929,7 +4948,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4952,13 +4971,13 @@
         <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4985,11 +5004,11 @@
         <v>42</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>42</v>
@@ -5007,7 +5026,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -5028,12 +5047,12 @@
         <v>46</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5059,10 +5078,10 @@
         <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5113,7 +5132,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5139,11 +5158,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5165,13 +5184,13 @@
         <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5212,7 +5231,7 @@
         <v>97</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>42</v>
@@ -5221,7 +5240,7 @@
         <v>98</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5247,7 +5266,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5270,19 +5289,19 @@
         <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>42</v>
@@ -5331,7 +5350,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5346,7 +5365,7 @@
         <v>61</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>42</v>
@@ -5357,7 +5376,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5383,10 +5402,10 @@
         <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5437,7 +5456,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5463,11 +5482,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5489,13 +5508,13 @@
         <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5536,7 +5555,7 @@
         <v>97</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>42</v>
@@ -5545,7 +5564,7 @@
         <v>98</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5571,7 +5590,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5597,23 +5616,23 @@
         <v>63</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>42</v>
@@ -5655,7 +5674,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5670,7 +5689,7 @@
         <v>61</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>42</v>
@@ -5681,7 +5700,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5707,13 +5726,13 @@
         <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5763,7 +5782,7 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -5778,7 +5797,7 @@
         <v>61</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>42</v>
@@ -5789,7 +5808,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5815,14 +5834,14 @@
         <v>69</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>42</v>
@@ -5871,7 +5890,7 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -5886,7 +5905,7 @@
         <v>61</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>42</v>
@@ -5897,7 +5916,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5923,14 +5942,14 @@
         <v>51</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
@@ -5979,7 +5998,7 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -5994,7 +6013,7 @@
         <v>61</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>42</v>
@@ -6005,7 +6024,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6028,19 +6047,19 @@
         <v>50</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>42</v>
@@ -6089,7 +6108,7 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6104,7 +6123,7 @@
         <v>61</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>42</v>
@@ -6115,7 +6134,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6141,16 +6160,16 @@
         <v>51</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>42</v>
@@ -6199,7 +6218,7 @@
         <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6214,7 +6233,7 @@
         <v>61</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>42</v>
@@ -6225,7 +6244,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6248,13 +6267,13 @@
         <v>50</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6284,10 +6303,10 @@
         <v>73</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>42</v>
@@ -6305,7 +6324,7 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6326,12 +6345,12 @@
         <v>42</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6357,10 +6376,10 @@
         <v>51</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6411,7 +6430,7 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6437,11 +6456,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6463,13 +6482,13 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6510,7 +6529,7 @@
         <v>97</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>42</v>
@@ -6519,7 +6538,7 @@
         <v>98</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6545,7 +6564,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6568,19 +6587,19 @@
         <v>50</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
@@ -6629,7 +6648,7 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -6644,7 +6663,7 @@
         <v>61</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>42</v>
@@ -6655,7 +6674,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6681,10 +6700,10 @@
         <v>51</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6735,7 +6754,7 @@
         <v>42</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -6761,11 +6780,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6787,13 +6806,13 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -6834,7 +6853,7 @@
         <v>97</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>42</v>
@@ -6843,7 +6862,7 @@
         <v>98</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -6869,7 +6888,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6895,23 +6914,23 @@
         <v>63</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>42</v>
@@ -6953,7 +6972,7 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -6968,7 +6987,7 @@
         <v>61</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>42</v>
@@ -6979,7 +6998,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7005,13 +7024,13 @@
         <v>51</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7061,7 +7080,7 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -7076,7 +7095,7 @@
         <v>61</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>42</v>
@@ -7087,7 +7106,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7113,14 +7132,14 @@
         <v>69</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>42</v>
@@ -7169,7 +7188,7 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -7184,7 +7203,7 @@
         <v>61</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>42</v>
@@ -7195,7 +7214,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7221,14 +7240,14 @@
         <v>51</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>42</v>
@@ -7277,7 +7296,7 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7292,7 +7311,7 @@
         <v>61</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>42</v>
@@ -7303,7 +7322,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7326,19 +7345,19 @@
         <v>50</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>42</v>
@@ -7387,7 +7406,7 @@
         <v>42</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7402,7 +7421,7 @@
         <v>61</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>42</v>
@@ -7413,7 +7432,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7439,16 +7458,16 @@
         <v>51</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>42</v>
@@ -7497,7 +7516,7 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7512,7 +7531,7 @@
         <v>61</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>42</v>
@@ -7523,7 +7542,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7546,16 +7565,16 @@
         <v>50</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7605,7 +7624,7 @@
         <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>49</v>
@@ -7623,15 +7642,15 @@
         <v>42</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7657,10 +7676,10 @@
         <v>51</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7711,7 +7730,7 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -7737,11 +7756,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -7763,13 +7782,13 @@
         <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -7810,7 +7829,7 @@
         <v>97</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>42</v>
@@ -7819,7 +7838,7 @@
         <v>98</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
@@ -7845,7 +7864,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7871,13 +7890,13 @@
         <v>51</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -7927,7 +7946,7 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -7936,7 +7955,7 @@
         <v>49</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>61</v>
@@ -7953,7 +7972,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7979,13 +7998,13 @@
         <v>63</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8011,13 +8030,13 @@
         <v>42</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>42</v>
@@ -8035,7 +8054,7 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -8061,7 +8080,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8084,16 +8103,16 @@
         <v>50</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8143,7 +8162,7 @@
         <v>42</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8158,7 +8177,7 @@
         <v>61</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>42</v>
@@ -8169,7 +8188,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8195,13 +8214,13 @@
         <v>51</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8251,7 +8270,7 @@
         <v>42</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8277,7 +8296,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8300,13 +8319,13 @@
         <v>50</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8357,7 +8376,7 @@
         <v>42</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8375,15 +8394,15 @@
         <v>42</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8409,10 +8428,10 @@
         <v>51</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8463,7 +8482,7 @@
         <v>42</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
@@ -8489,11 +8508,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -8515,14 +8534,12 @@
         <v>94</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>42</v>
@@ -8562,7 +8579,7 @@
         <v>97</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>42</v>
@@ -8571,7 +8588,7 @@
         <v>98</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -8586,7 +8603,7 @@
         <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>42</v>
@@ -8597,18 +8614,20 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B69" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="C69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>42</v>
@@ -8617,20 +8636,18 @@
         <v>42</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>42</v>
@@ -8679,22 +8696,22 @@
         <v>42</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>321</v>
+        <v>131</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>322</v>
+        <v>42</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>323</v>
+        <v>42</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>42</v>
@@ -8705,7 +8722,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8728,24 +8745,22 @@
         <v>50</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="P70" t="s" s="2">
-        <v>328</v>
-      </c>
+      <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
         <v>42</v>
       </c>
@@ -8789,7 +8804,7 @@
         <v>42</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -8798,13 +8813,13 @@
         <v>49</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>42</v>
@@ -8815,7 +8830,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8823,7 +8838,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>49</v>
@@ -8835,23 +8850,27 @@
         <v>42</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>51</v>
+        <v>323</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="P71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="Q71" t="s" s="2">
         <v>42</v>
       </c>
@@ -8895,7 +8914,7 @@
         <v>42</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
@@ -8904,23 +8923,129 @@
         <v>49</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>42</v>
+        <v>336</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>334</v>
+        <v>42</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL71">
+  <autoFilter ref="A1:AL72">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8930,7 +9055,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI70">
+  <conditionalFormatting sqref="A2:AI71">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/fhir/indisa/StructureDefinition-ProfileScheduleKlinic.xlsx
+++ b/fhir/indisa/StructureDefinition-ProfileScheduleKlinic.xlsx
@@ -1230,44 +1230,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.0546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.5703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.23046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.59765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="69.37890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.48828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="44.79296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="32.76953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.68359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="99.8515625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
